--- a/Files/complexTemplate.xlsx
+++ b/Files/complexTemplate.xlsx
@@ -28,9 +28,6 @@
     <t>Доставка</t>
   </si>
   <si>
-    <t>Value:String:TypeName</t>
-  </si>
-  <si>
     <t>Средство доставки</t>
   </si>
   <si>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t>Value::Kpp</t>
+  </si>
+  <si>
+    <t>Value::TypeName</t>
   </si>
 </sst>
 </file>
@@ -141,12 +141,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -162,7 +174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
@@ -170,8 +182,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -477,7 +491,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +505,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -509,14 +523,14 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -529,7 +543,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -542,13 +556,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -558,7 +572,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -570,13 +584,13 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
+      <c r="A8" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -588,7 +602,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -597,18 +611,18 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -623,23 +637,23 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
